--- a/_Test-verbatim.xlsx
+++ b/_Test-verbatim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\MTTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE3C7B-C6F3-4F5B-B6CA-02EC36D94131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D30776-6C94-4A36-8EF4-CBA82489DD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30888" yWindow="996" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5784" yWindow="1668" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Text</t>
   </si>
@@ -91,13 +91,28 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>ru-RU-Wavenet-E</t>
+  </si>
+  <si>
+    <t>&lt;phoneme alphabet="x-sampa" ph="naIner:'&gt;niner&lt;/phoneme&gt;</t>
+  </si>
+  <si>
+    <t>niner_ru</t>
+  </si>
+  <si>
+    <t>niner_gb</t>
+  </si>
+  <si>
+    <t>en-GB-Wavenet-F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +139,12 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,12 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,18 +456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="6.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
@@ -504,6 +528,9 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -512,6 +539,9 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="M3" t="s">
         <v>21</v>
       </c>
@@ -523,6 +553,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
@@ -534,8 +567,73 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
